--- a/10.10.70.56/QLBLSRC_QLIBSS/QLBLSRC_QLIBSS.xlsx
+++ b/10.10.70.56/QLBLSRC_QLIBSS/QLBLSRC_QLIBSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\git\西祺\seedswine\10.10.70.56\QLBLSRC_QLIBSS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QLBLSRC_QLIBSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0429F-5947-4E50-A3C4-128B13997499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECFF3FE-E172-4000-8E60-DF34C3C8ACF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="4140" windowWidth="21600" windowHeight="11295" xr2:uid="{AAB5B141-E537-4490-9D64-541F9BFF2EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AAB5B141-E537-4490-9D64-541F9BFF2EDB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>P05</t>
   </si>
@@ -72,6 +72,26 @@
   </si>
   <si>
     <t>CONVERT A NUMBERINTOcharacter (PARM1-3)</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -455,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F36314-656D-418F-A87A-8C22B62F5F59}">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -466,7 +486,24 @@
     <col min="4" max="4" width="52.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -480,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -494,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -508,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -522,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
